--- a/ComcastCRMGUIFramework2/testdata/testScriptdata.xlsx
+++ b/ComcastCRMGUIFramework2/testdata/testScriptdata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="4110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="4110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="multipledata" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -288,9 +287,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Kabaddi_</t>
-  </si>
-  <si>
     <t>createContact</t>
   </si>
   <si>
@@ -300,9 +296,6 @@
     <t>createContactWithSupportDateTest</t>
   </si>
   <si>
-    <t>Naveen</t>
-  </si>
-  <si>
     <t>orgName</t>
   </si>
   <si>
@@ -313,6 +306,12 @@
   </si>
   <si>
     <t>PASS1</t>
+  </si>
+  <si>
+    <t>Deepak_</t>
+  </si>
+  <si>
+    <t>Naveen_</t>
   </si>
 </sst>
 </file>
@@ -449,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +483,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -729,7 +728,7 @@
         <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,13 +851,12 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
+        <v>95</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
@@ -875,13 +873,12 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25"/>
+        <v>96</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
@@ -890,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>87</v>
@@ -901,13 +898,13 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
